--- a/Code_python/Data/EURUSD.xlsx
+++ b/Code_python/Data/EURUSD.xlsx
@@ -2406,7 +2406,7 @@
         <v>1.1849</v>
       </c>
       <c r="E101">
-        <v>1.1855</v>
+        <v>1.186</v>
       </c>
     </row>
   </sheetData>

--- a/Code_python/Data/EURUSD.xlsx
+++ b/Code_python/Data/EURUSD.xlsx
@@ -48793,7 +48793,7 @@
         <v>4400</v>
       </c>
       <c r="B4402">
-        <v>1.187648415565491</v>
+        <v>1.18674647808075</v>
       </c>
     </row>
   </sheetData>
